--- a/result/result-large.xlsx
+++ b/result/result-large.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hugo2\OneDrive\Documents\projet\memoire\yolov5-master\result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71ABBD5C-2EB7-41A2-8F8C-C09BF5520651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A7D2C02-9DE6-4B11-95E8-049F0DE0D89F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{630A7F1F-3676-4DB6-BA5B-D2AD22F82375}"/>
+    <workbookView xWindow="57645" yWindow="14835" windowWidth="28680" windowHeight="15315" xr2:uid="{630A7F1F-3676-4DB6-BA5B-D2AD22F82375}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -3415,8 +3415,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8315324" y="3218962"/>
-          <a:ext cx="7388225" cy="4583233"/>
+          <a:off x="8318499" y="3180617"/>
+          <a:ext cx="7388225" cy="4522176"/>
           <a:chOff x="8950324" y="3302000"/>
           <a:chExt cx="8023225" cy="4705349"/>
         </a:xfrm>
@@ -3982,7 +3982,7 @@
   <dimension ref="B2:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K24" sqref="H21:K24"/>
+      <selection activeCell="B2" sqref="B2:M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4204,7 +4204,7 @@
         <v>0.671875</v>
       </c>
       <c r="M6">
-        <f t="shared" si="6"/>
+        <f>(C6+E6)/(G6+H6)</f>
         <v>0.6097560975609756</v>
       </c>
     </row>

--- a/result/result-large.xlsx
+++ b/result/result-large.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hugo2\OneDrive\Documents\projet\memoire\yolov5-master\result\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hugocianciolo/IdeaProjects/memoire-python/result/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A7D2C02-9DE6-4B11-95E8-049F0DE0D89F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4535BEED-F07F-7147-AA71-035B351D7EE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57645" yWindow="14835" windowWidth="28680" windowHeight="15315" xr2:uid="{630A7F1F-3676-4DB6-BA5B-D2AD22F82375}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16020" xr2:uid="{630A7F1F-3676-4DB6-BA5B-D2AD22F82375}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,8 +23,11 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -3392,15 +3395,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>695324</xdr:colOff>
+      <xdr:colOff>666016</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:rowOff>53731</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>463549</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>6349</xdr:rowOff>
+      <xdr:colOff>434241</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>191965</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -3415,8 +3418,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8318499" y="3180617"/>
-          <a:ext cx="7388225" cy="4522176"/>
+          <a:off x="8969862" y="3375269"/>
+          <a:ext cx="8072071" cy="4827465"/>
           <a:chOff x="8950324" y="3302000"/>
           <a:chExt cx="8023225" cy="4705349"/>
         </a:xfrm>
@@ -3474,8 +3477,8 @@
           </xdr:nvCxnSpPr>
           <xdr:spPr>
             <a:xfrm flipV="1">
-              <a:off x="9525000" y="3771900"/>
-              <a:ext cx="7277100" cy="3378200"/>
+              <a:off x="9550653" y="3763823"/>
+              <a:ext cx="7243746" cy="3399392"/>
             </a:xfrm>
             <a:prstGeom prst="line">
               <a:avLst/>
@@ -3483,95 +3486,6 @@
             <a:ln>
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:prstDash val="dash"/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-        </xdr:cxnSp>
-        <xdr:cxnSp macro="">
-          <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="9" name="Connecteur droit 8">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1743BA2D-E573-E145-B0DA-DF474AD08C81}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvCxnSpPr>
-              <a:cxnSpLocks noChangeAspect="1"/>
-            </xdr:cNvCxnSpPr>
-          </xdr:nvCxnSpPr>
-          <xdr:spPr>
-            <a:xfrm flipV="1">
-              <a:off x="9600914" y="3768373"/>
-              <a:ext cx="5615938" cy="2608755"/>
-            </a:xfrm>
-            <a:prstGeom prst="line">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:prstDash val="dash"/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-        </xdr:cxnSp>
-        <xdr:cxnSp macro="">
-          <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="11" name="Connecteur droit 10">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{596D7155-0716-0348-90E0-6CBF9E37E6AE}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvCxnSpPr>
-              <a:cxnSpLocks noChangeAspect="1"/>
-            </xdr:cNvCxnSpPr>
-          </xdr:nvCxnSpPr>
-          <xdr:spPr>
-            <a:xfrm flipV="1">
-              <a:off x="9604284" y="3768373"/>
-              <a:ext cx="5501011" cy="2542484"/>
-            </a:xfrm>
-            <a:prstGeom prst="line">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:prstDash val="dash"/>
             </a:ln>
@@ -3677,6 +3591,122 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>429833</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>127033</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>312615</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>117231</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Connecteur droit 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BF8E446-E106-1849-97E8-89621DA89950}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks noChangeAspect="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9564064" y="3839341"/>
+          <a:ext cx="5695474" cy="2725582"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent3"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>420077</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>168030</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>52675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="Connecteur droit 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE7D044F-429C-D948-B5BB-1E3FEB931607}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks noChangeAspect="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9554308" y="3839308"/>
+          <a:ext cx="5560645" cy="2661059"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3981,13 +4011,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3174BB56-041E-4E47-89EA-6DC8F744B4D8}">
   <dimension ref="B2:N6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:M6"/>
+    <sheetView tabSelected="1" topLeftCell="B17" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="V29" sqref="V29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -4028,7 +4058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>12</v>
       </c>
@@ -4073,7 +4103,7 @@
         <v>0.5934959349593496</v>
       </c>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>13</v>
       </c>
@@ -4114,11 +4144,11 @@
         <v>0.70370370370370372</v>
       </c>
       <c r="M4">
-        <f t="shared" ref="M4:M6" si="6">(C4+E4)/(G4+H4)</f>
+        <f t="shared" ref="M4:M5" si="6">(C4+E4)/(G4+H4)</f>
         <v>0.6097560975609756</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>14</v>
       </c>
@@ -4163,7 +4193,7 @@
         <v>0.60162601626016265</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>15</v>
       </c>
